--- a/AEMostofa/Meherpur WD Division/P1/Ichamoti Khal/XL_FILE & KMZ/Combined_input_NDR_P_01_all_modified.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Ichamoti Khal/XL_FILE & KMZ/Combined_input_NDR_P_01_all_modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Meherpur WD Division\P1\Ichamoti Khal\XL_FILE &amp; KMZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA9DFE-42C0-41B4-9F74-75D6FD2A8DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48565A41-706A-4EB5-A0E6-438B12896552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,6 +824,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,10 +1135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+    <sheetView topLeftCell="A358" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G598" sqref="G598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="35" t="s">
         <v>6</v>
@@ -1185,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>12.792999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>11.923</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>11.132999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>11.096</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>10.756</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>10.576000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>10.396000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>10.396000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>10.385999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>10.396000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>10.396000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>10.406000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>10.416</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>10.446</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>10.426</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>10.426</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>10.426</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>10.426</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>10.625999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>10.826000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>11.343</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>12.083</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>11.097</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>10</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>10.427</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>10.327</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>10.587</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>10.487</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>10.467000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>10.467000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>10.377000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>10</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>10.367000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>10.477</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>10.397</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>10.467000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>10.577</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>10.707000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>10</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>10.766999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>10.797000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>10.807</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>10.867000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>11.097</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>13.287000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>12.557</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>11.612</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>11.103</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>11</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>10.782999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>10.563000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>10.503</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>10.433</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>10.423</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>10.393000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>10.413</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>10.393000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>11</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>10.423</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>10.462999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>10.632999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>11.103</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>11.446999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>12.147</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>12.077</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>13.295999999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>12.295999999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>11.676</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>11.112</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>10.362</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>12</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>10.561999999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>10.542</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>10.502000000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>10.552</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>12</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>10.522</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>12</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>10.522</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2439,7 @@
         <v>10.481999999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>10.432</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>12</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>10.321999999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>12</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>10.332000000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>10.561999999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>10.641999999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>12</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>11.112</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>12</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>11.545999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>12.076000000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>13</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>13</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>13.505000000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>12.824999999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>13</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>12.145</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>13</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>11.525</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>11.185</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>11.125999999999999</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>13</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>10.965999999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>13</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>10.736000000000001</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>13</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>10.566000000000001</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>13</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>10.576000000000001</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>13</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>10.516</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>13</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>10.596</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>13</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>10.416</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>10.526</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>10.506</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>13</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>10.566000000000001</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>10.545999999999999</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>10.596</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>13</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>10.586</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>13</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>10.616</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>13</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>10.606</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>10.676</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>13</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>11.125999999999999</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>13</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>13</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>11.645</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>11.645</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>14</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>13.276999999999999</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>14</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>12.537000000000001</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>14</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>11.776999999999999</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>14</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>11.276999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>14</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>11.134</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>14</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>10.853999999999999</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>14</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>10.704000000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>14</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>10.534000000000001</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>14</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>10.603999999999999</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>14</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>10.683999999999999</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>14</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>10.614000000000001</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>14</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>10.523999999999999</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>14</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>10.584</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>14</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>10.564</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>14</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>10.544</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>14</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>10.574</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>14</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>10.584</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>14</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>10.694000000000001</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>14</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>11.134</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>14</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>11.847</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>14</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>14</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>11.807</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>14</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>11.807</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>15</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>15</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>13.388000000000011</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>15</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>12.768000000000001</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>15</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>11.788</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>15</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>11.448</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>11.278</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>15</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>15</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>15</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>15</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>15</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>15</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>15</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>15</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>15</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>15</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>15</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>15</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>10.61</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>15</v>
       </c>
@@ -3608,7 +3614,7 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>15</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>15</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>15</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>11.558</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>15</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>15</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>12.298000000000011</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>16</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>16</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>13.071999999999999</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>16</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>11.782000000000011</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>11.372000000000011</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>16</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>16</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>16</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>16</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>16</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>16</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>16</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>16</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>16</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>16</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>16</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>16</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>16</v>
       </c>
@@ -3939,7 +3945,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>16</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>11.352000000000009</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>16</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>12.07200000000001</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>16</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>12.122000000000011</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>17</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>13.484000000000011</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>17</v>
       </c>
@@ -4043,7 +4049,7 @@
         <v>12.91400000000001</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>17</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>12.224000000000011</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>17</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>11.614000000000001</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>17</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>11.234000000000011</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>17</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>11.150000000000009</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>17</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>10.730000000000009</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>17</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>10.68000000000001</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>17</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>10.68000000000001</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>17</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>10.730000000000009</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>17</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>10.730000000000009</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>10.650000000000009</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>17</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>17</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>17</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>10.730000000000009</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>17</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>10.71000000000001</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>17</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>10.71000000000001</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>17</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>17</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>11.150000000000009</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>17</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>11.484000000000011</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>17</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>17</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>12.03400000000001</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>17</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>12.03400000000001</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>18</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>18</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>18</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>18</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>18</v>
       </c>
@@ -4416,7 +4422,7 @@
         <v>11.18</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>18</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>18</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>18</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>18</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>18</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>18</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>18</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>18</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>18</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>18</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>18</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>18</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>18</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>18</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>18</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>18</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>11.18</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>18</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>18</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>18</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>18</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>12.330000000000011</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>18</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>19</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>13.22</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>19</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>12.68000000000001</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>19</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>19</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>19</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>19</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>19</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>10.73</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>19</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>19</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>19</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>19</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>19</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>19</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>19</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>19</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>19</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>19</v>
       </c>
@@ -4988,7 +4994,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>19</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>19</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>19</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>20</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>20</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>12.701000000000001</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>20</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>12.101000000000001</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>20</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>11.651</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>20</v>
       </c>
@@ -5106,7 +5112,7 @@
         <v>11.323</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>20</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>11.053000000000001</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>20</v>
       </c>
@@ -5134,7 +5140,7 @@
         <v>10.923</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>20</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>10.893000000000001</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>20</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>10.952999999999999</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>20</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>20</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>11.063000000000001</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>20</v>
       </c>
@@ -5207,7 +5213,7 @@
         <v>11.083</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>20</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>11.013</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>20</v>
       </c>
@@ -5235,7 +5241,7 @@
         <v>10.933</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>20</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>10.962999999999999</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>20</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>11.003</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>11.032999999999999</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>20</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>11.013</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>20</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>10.993</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>20</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>11.042999999999999</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>20</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>11.323</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>20</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>11.441000000000001</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>20</v>
       </c>
@@ -5361,7 +5367,7 @@
         <v>11.301</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>20</v>
       </c>
@@ -5375,7 +5381,7 @@
         <v>11.711</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>20</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>20</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>12.621</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>20</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>12.680999999999999</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>21</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>21</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>13.273999999999999</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>21</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>12.673999999999999</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>21</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>11.834</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>21</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>11.337</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>11.047000000000001</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>21</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>10.856999999999999</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>21</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>10.797000000000001</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>21</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>10.727</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>21</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>10.757</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>21</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>10.727</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>21</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>21</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>10.677</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>21</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>10.807</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>21</v>
       </c>
@@ -5636,7 +5642,7 @@
         <v>10.817</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>21</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>10.606999999999999</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>21</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>11.127000000000001</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>21</v>
       </c>
@@ -5678,7 +5684,7 @@
         <v>11.336</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>21</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>12.054</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>21</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>12.234</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>21</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>12.234</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>22</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>22</v>
       </c>
@@ -5768,7 +5774,7 @@
         <v>13.492000000000001</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>22</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>13.052</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>22</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>12.04200000000001</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>22</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>11.641999999999999</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>22</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>11.334</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>22</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>11.084</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>22</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>11.034000000000001</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>22</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>10.974</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>22</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>10.944000000000001</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>22</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>10.964</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>22</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>10.944000000000001</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>22</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>10.794</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>22</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>11.103999999999999</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>22</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>11.114000000000001</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>22</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>11.064</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>22</v>
       </c>
@@ -5995,7 +6001,7 @@
         <v>11.044</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>22</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>11.084</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>11.334</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>22</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>22</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>11.952000000000011</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>22</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>12.898999999999999</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>24</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>24</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>13.43000000000001</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>24</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>24</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>24</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>11.432</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>24</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>11.162000000000001</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>24</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>10.962</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>24</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>10.731999999999999</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>24</v>
       </c>
@@ -6542,7 +6548,7 @@
         <v>10.682</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>24</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>10.622</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>24</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>10.561999999999999</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>24</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>24</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>10.651999999999999</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>24</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>10.811999999999999</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>24</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>11.002000000000001</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>24</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>11.012</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>24</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>11.022</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>24</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>11.432</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>24</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>24</v>
       </c>
@@ -6702,7 +6708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>24</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>24</v>
       </c>
@@ -6730,7 +6736,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>24</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>25</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
         <v>25</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>13.50700000000001</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>25</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>12.50700000000001</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
         <v>25</v>
       </c>
@@ -6803,7 +6809,7 @@
         <v>11.794000000000009</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>25</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>11.426000000000011</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>25</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>11.106</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>25</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>10.72600000000001</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>25</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>10.676000000000011</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>25</v>
       </c>
@@ -6873,7 +6879,7 @@
         <v>10.55600000000001</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
         <v>25</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>10.625999999999999</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
         <v>25</v>
       </c>
@@ -6901,7 +6907,7 @@
         <v>10.536</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
         <v>25</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>10.586000000000009</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>25</v>
       </c>
@@ -6929,7 +6935,7 @@
         <v>10.625999999999999</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
         <v>25</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
         <v>25</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>10.786</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>25</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>10.72600000000001</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>25</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>10.926000000000011</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
         <v>25</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>11.096000000000011</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
         <v>25</v>
       </c>
@@ -7016,7 +7022,7 @@
         <v>11.176000000000011</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
         <v>25</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>11.426000000000011</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>25</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>11.567000000000011</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>25</v>
       </c>
@@ -7061,7 +7067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>25</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>12.557000000000009</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>25</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>12.85700000000001</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>25</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>12.85700000000001</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>25</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>12.85700000000001</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>26</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>26</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>14.028000000000009</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>26</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>13.50800000000001</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>26</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>12.30800000000001</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>26</v>
       </c>
@@ -7190,7 +7196,7 @@
         <v>11.41800000000001</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>26</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>11.16800000000001</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>26</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>10.82800000000001</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>26</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>10.618000000000009</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>26</v>
       </c>
@@ -7246,7 +7252,7 @@
         <v>10.26800000000001</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>26</v>
       </c>
@@ -7260,7 +7266,7 @@
         <v>10.25800000000001</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>26</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>10.23800000000001</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>26</v>
       </c>
@@ -7288,7 +7294,7 @@
         <v>10.378000000000011</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>26</v>
       </c>
@@ -7305,7 +7311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>26</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>10.49800000000001</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>26</v>
       </c>
@@ -7333,7 +7339,7 @@
         <v>10.718000000000011</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>26</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>10.718000000000011</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>26</v>
       </c>
@@ -7361,7 +7367,7 @@
         <v>11.048000000000011</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>26</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>11.41800000000001</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>26</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>12.118000000000009</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
         <v>26</v>
       </c>
@@ -7406,7 +7412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
         <v>26</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>13.22800000000001</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
         <v>26</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>13.31800000000001</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
         <v>26</v>
       </c>
@@ -7448,7 +7454,7 @@
         <v>13.25800000000001</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>26</v>
       </c>
@@ -7462,7 +7468,7 @@
         <v>13.25800000000001</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
         <v>27</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
         <v>27</v>
       </c>
@@ -7493,7 +7499,7 @@
         <v>13.721000000000011</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
         <v>27</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>12.84100000000001</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
         <v>27</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>11.83100000000001</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>27</v>
       </c>
@@ -7535,7 +7541,7 @@
         <v>11.42400000000001</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>27</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>11.08400000000001</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>27</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>10.67400000000001</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
         <v>27</v>
       </c>
@@ -7577,7 +7583,7 @@
         <v>10.564000000000011</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>27</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>10.36400000000001</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>27</v>
       </c>
@@ -7605,7 +7611,7 @@
         <v>10.294000000000009</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>27</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>10.324000000000011</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>27</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>27</v>
       </c>
@@ -7650,7 +7656,7 @@
         <v>10.574000000000011</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>27</v>
       </c>
@@ -7664,7 +7670,7 @@
         <v>10.574000000000011</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>27</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>10.634000000000009</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>27</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>10.734000000000011</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>27</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>10.894000000000011</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>27</v>
       </c>
@@ -7720,7 +7726,7 @@
         <v>11.00400000000001</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>27</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>11.054000000000009</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>27</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>11.42400000000001</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>27</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>11.621000000000009</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
         <v>27</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>12.701000000000009</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>27</v>
       </c>
@@ -7790,7 +7796,7 @@
         <v>13.391000000000011</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>27</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
         <v>27</v>
       </c>
@@ -7821,7 +7827,7 @@
         <v>13.77100000000001</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
         <v>27</v>
       </c>
@@ -7835,7 +7841,7 @@
         <v>13.77100000000001</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>28</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
         <v>28</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>13.977000000000009</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
         <v>28</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>13.077000000000011</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>28</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>12.37700000000001</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>28</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>11.637000000000009</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
         <v>28</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>11.41200000000001</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
         <v>28</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>10.842000000000009</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>28</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>10.592000000000009</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>28</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>10.49200000000001</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>28</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>10.40200000000001</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>28</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>10.38200000000001</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>28</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>9.9420000000000055</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>28</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>9.9420000000000055</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
         <v>28</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
         <v>28</v>
       </c>
@@ -8051,7 +8057,7 @@
         <v>9.1620000000000061</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
         <v>28</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>10.38200000000001</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>28</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>10.672000000000009</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>28</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>11.092000000000009</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
         <v>28</v>
       </c>
@@ -8107,7 +8113,7 @@
         <v>11.41200000000001</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
         <v>28</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>11.807000000000009</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
         <v>28</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>12.147000000000009</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>28</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>12.33700000000001</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>28</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>28</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>13.227000000000009</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>28</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>30</v>
       </c>
@@ -8214,7 +8220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>30</v>
       </c>
@@ -8228,7 +8234,7 @@
         <v>13.84700000000001</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>30</v>
       </c>
@@ -8242,7 +8248,7 @@
         <v>13.23200000000001</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
         <v>30</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>12.612000000000011</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
         <v>30</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>11.75200000000001</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
         <v>30</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>11.432000000000009</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>30</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>10.932000000000009</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
         <v>30</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>10.592000000000009</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>30</v>
       </c>
@@ -8326,7 +8332,7 @@
         <v>10.49200000000001</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
         <v>30</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>10.352000000000009</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
         <v>30</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>10.39200000000001</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
         <v>30</v>
       </c>
@@ -8368,7 +8374,7 @@
         <v>10.25200000000001</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
         <v>30</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>10.24200000000001</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
         <v>30</v>
       </c>
@@ -8396,7 +8402,7 @@
         <v>10.192000000000011</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
         <v>30</v>
       </c>
@@ -8413,7 +8419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B506" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>10.112000000000011</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B507" t="s">
         <v>30</v>
       </c>
@@ -8441,7 +8447,7 @@
         <v>10.30200000000001</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B508" t="s">
         <v>30</v>
       </c>
@@ -8455,7 +8461,7 @@
         <v>10.422000000000009</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
         <v>30</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>10.57200000000001</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
         <v>30</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>10.73200000000001</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>30</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>30</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>11.432000000000009</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>30</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>11.692000000000011</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>30</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
         <v>31</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
         <v>31</v>
       </c>
@@ -8576,7 +8582,7 @@
         <v>13.90200000000001</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
         <v>31</v>
       </c>
@@ -8590,7 +8596,7 @@
         <v>12.762000000000009</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
         <v>31</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>11.98200000000001</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
         <v>31</v>
       </c>
@@ -8618,7 +8624,7 @@
         <v>11.436000000000011</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>31</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>10.96600000000001</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
         <v>31</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>10.77600000000001</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
         <v>31</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>10.766000000000011</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>31</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>10.63600000000001</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>31</v>
       </c>
@@ -8688,7 +8694,7 @@
         <v>10.496000000000009</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>31</v>
       </c>
@@ -8702,7 +8708,7 @@
         <v>10.416000000000009</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>31</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>31</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>10.36600000000001</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>31</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>10.246000000000009</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>31</v>
       </c>
@@ -8761,7 +8767,7 @@
         <v>10.266000000000011</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>31</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>10.426000000000011</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>31</v>
       </c>
@@ -8789,7 +8795,7 @@
         <v>11.016000000000011</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>31</v>
       </c>
@@ -8803,7 +8809,7 @@
         <v>11.096000000000011</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>31</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>11.436000000000011</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>31</v>
       </c>
@@ -8834,7 +8840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>31</v>
       </c>
@@ -8848,7 +8854,7 @@
         <v>13.012000000000009</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>31</v>
       </c>
@@ -8862,7 +8868,7 @@
         <v>13.83200000000001</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
         <v>31</v>
       </c>
@@ -8879,7 +8885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
         <v>31</v>
       </c>
@@ -8896,7 +8902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>32</v>
       </c>
@@ -8913,7 +8919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
         <v>32</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>13.89800000000001</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>32</v>
       </c>
@@ -8941,7 +8947,7 @@
         <v>13.30800000000001</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
         <v>32</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>12.618000000000009</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
         <v>32</v>
       </c>
@@ -8969,7 +8975,7 @@
         <v>11.83800000000001</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
         <v>32</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>11.41800000000001</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
         <v>32</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>10.97800000000001</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
         <v>32</v>
       </c>
@@ -9011,7 +9017,7 @@
         <v>10.82800000000001</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
         <v>32</v>
       </c>
@@ -9025,7 +9031,7 @@
         <v>10.698000000000009</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
         <v>32</v>
       </c>
@@ -9039,7 +9045,7 @@
         <v>10.438000000000009</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
         <v>32</v>
       </c>
@@ -9053,7 +9059,7 @@
         <v>10.31800000000001</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
         <v>32</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>10.26800000000001</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
         <v>32</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9104,7 @@
         <v>9.9680000000000106</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
         <v>32</v>
       </c>
@@ -9112,7 +9118,7 @@
         <v>10.028000000000009</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
         <v>32</v>
       </c>
@@ -9126,7 +9132,7 @@
         <v>10.26800000000001</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
         <v>32</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>10.40800000000001</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
         <v>32</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>10.548000000000011</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
         <v>32</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>10.64800000000001</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>32</v>
       </c>
@@ -9182,7 +9188,7 @@
         <v>10.92800000000001</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
         <v>32</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>11.41800000000001</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
         <v>32</v>
       </c>
@@ -9210,7 +9216,7 @@
         <v>11.698000000000009</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
         <v>32</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>11.72800000000001</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
         <v>32</v>
       </c>
@@ -9241,7 +9247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
         <v>32</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>12.98800000000001</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
         <v>32</v>
       </c>
@@ -9269,7 +9275,7 @@
         <v>13.788000000000009</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
         <v>32</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
         <v>34</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
         <v>34</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>14.233000000000009</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B568" t="s">
         <v>34</v>
       </c>
@@ -9331,7 +9337,7 @@
         <v>13.61300000000001</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B569" t="s">
         <v>34</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>12.47300000000001</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B570" t="s">
         <v>34</v>
       </c>
@@ -9359,7 +9365,7 @@
         <v>11.45300000000001</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B571" t="s">
         <v>34</v>
       </c>
@@ -9373,7 +9379,7 @@
         <v>11.233000000000009</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B572" t="s">
         <v>34</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>10.97300000000001</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B573" t="s">
         <v>34</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>10.983000000000009</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B574" t="s">
         <v>34</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>10.93300000000001</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B575" t="s">
         <v>34</v>
       </c>
@@ -9429,7 +9435,7 @@
         <v>10.88300000000001</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>34</v>
       </c>
@@ -9443,7 +9449,7 @@
         <v>11.013000000000011</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>34</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>11.04300000000001</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
         <v>34</v>
       </c>
@@ -9471,7 +9477,7 @@
         <v>11.05300000000001</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
         <v>34</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
         <v>34</v>
       </c>
@@ -9502,7 +9508,7 @@
         <v>10.97300000000001</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
         <v>34</v>
       </c>
@@ -9516,7 +9522,7 @@
         <v>10.96300000000001</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
         <v>34</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>10.89300000000001</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
         <v>34</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>10.80300000000001</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B584" t="s">
         <v>34</v>
       </c>
@@ -9558,7 +9564,7 @@
         <v>10.77300000000001</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B585" t="s">
         <v>34</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>10.833000000000011</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B586" t="s">
         <v>34</v>
       </c>
@@ -9586,7 +9592,7 @@
         <v>10.923000000000011</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
         <v>34</v>
       </c>
@@ -9600,7 +9606,7 @@
         <v>10.913000000000009</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B588" t="s">
         <v>34</v>
       </c>
@@ -9614,7 +9620,7 @@
         <v>10.97300000000001</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B589" t="s">
         <v>34</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>11.02300000000001</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B590" t="s">
         <v>34</v>
       </c>
@@ -9642,7 +9648,7 @@
         <v>11.05300000000001</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B591" t="s">
         <v>34</v>
       </c>
@@ -9656,7 +9662,7 @@
         <v>11.05300000000001</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B592" t="s">
         <v>34</v>
       </c>
@@ -9670,7 +9676,7 @@
         <v>11.45700000000001</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B593" t="s">
         <v>34</v>
       </c>
@@ -9687,7 +9693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B594" t="s">
         <v>34</v>
       </c>
@@ -9701,7 +9707,7 @@
         <v>12.483000000000009</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B595" t="s">
         <v>34</v>
       </c>
@@ -9715,7 +9721,7 @@
         <v>12.083000000000011</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
         <v>34</v>
       </c>
@@ -9738,7 +9744,13 @@
       <c r="D597"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F596" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F596" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ICM14"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="0.45" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9927,8 +9939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10054,531 +10066,532 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>9.14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>9.1300000000000008</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>300</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>9.1300000000000008</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>10</v>
       </c>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>600</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>9.11</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>700</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>9.11</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>800</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>9.1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>900</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>9.1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>9.09</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1100</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>9.09</v>
-      </c>
-      <c r="H13">
+      <c r="G15" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="H15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>1200</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>9.08</v>
-      </c>
-      <c r="H14">
+      <c r="G16" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="H16" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>1300</v>
-      </c>
-      <c r="D15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D19" s="1">
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>9.08</v>
-      </c>
-      <c r="H15">
+      <c r="G19" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H19" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>1400</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>9.07</v>
-      </c>
-      <c r="H16">
+      <c r="G20" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>1500</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>9.07</v>
-      </c>
-      <c r="H17">
+      <c r="G21" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>1600</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D22" s="1">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>9.06</v>
-      </c>
-      <c r="H18">
+      <c r="G22" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>1800</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="H19">
+      <c r="G23" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="H23" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>1900</v>
-      </c>
-      <c r="D20">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2625</v>
+      </c>
+      <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="H20">
+      <c r="G24" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="H24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>2000</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2830</v>
+      </c>
+      <c r="D25" s="1">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>2200</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>2400</v>
-      </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>9.02</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>2625</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>9.01</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>2830</v>
-      </c>
-      <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>9</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>10</v>
       </c>
     </row>
@@ -11588,8 +11601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11658,7 +11671,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -11670,19 +11683,19 @@
       <c r="D2" s="26">
         <v>15</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="39">
         <v>10</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="39">
         <v>2</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="39">
         <v>2</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="39">
         <v>4</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="39" t="s">
         <v>120</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -11708,14 +11721,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="33">
         <v>9.14</v>
       </c>
-      <c r="D3">
-        <v>15</v>
+      <c r="D3" s="1">
+        <v>16</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -11755,13 +11768,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9.1300000000000008</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
       <c r="E4">
@@ -11802,13 +11815,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>9.1300000000000008</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
       <c r="E5">
@@ -11849,13 +11862,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>15</v>
       </c>
       <c r="E6">
@@ -11896,13 +11909,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>14</v>
       </c>
       <c r="E7">
@@ -11943,13 +11956,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>9.11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>15</v>
       </c>
       <c r="E8">
@@ -11990,13 +12003,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>9.11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>15</v>
       </c>
       <c r="E9">
@@ -12037,13 +12050,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>9.1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>15</v>
       </c>
       <c r="E10">
@@ -12084,13 +12097,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>9.1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>15</v>
       </c>
       <c r="E11">
@@ -12131,13 +12144,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>9.09</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>14</v>
       </c>
       <c r="E12">
@@ -12178,14 +12191,14 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>9.09</v>
       </c>
-      <c r="D13">
-        <v>15</v>
+      <c r="D13" s="1">
+        <v>14</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -12222,19 +12235,19 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="38">
         <v>9.08</v>
       </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="38">
+        <v>14</v>
+      </c>
+      <c r="E14" s="37">
         <v>10</v>
       </c>
       <c r="F14">
@@ -12272,13 +12285,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>9.08</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>15</v>
       </c>
       <c r="E15">
@@ -12316,19 +12329,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="38">
         <v>9.07</v>
       </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="38">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37">
         <v>10</v>
       </c>
       <c r="F16">
@@ -12363,19 +12376,19 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="38">
         <v>9.07</v>
       </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="38">
+        <v>14</v>
+      </c>
+      <c r="E17" s="37">
         <v>10</v>
       </c>
       <c r="F17">
@@ -12410,19 +12423,19 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="38">
         <v>9.06</v>
       </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="38">
+        <v>14</v>
+      </c>
+      <c r="E18" s="37">
         <v>10</v>
       </c>
       <c r="F18">
@@ -12460,14 +12473,14 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D19">
-        <v>13</v>
+      <c r="D19" s="1">
+        <v>15</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -12507,13 +12520,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>15</v>
       </c>
       <c r="E20">
@@ -12551,19 +12564,19 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="38">
         <v>9.0399999999999991</v>
       </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="38">
+        <v>17</v>
+      </c>
+      <c r="E21" s="37">
         <v>10</v>
       </c>
       <c r="F21">
@@ -12598,19 +12611,19 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="38">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="38">
+        <v>17</v>
+      </c>
+      <c r="E22" s="37">
         <v>10</v>
       </c>
       <c r="F22">
@@ -12645,19 +12658,19 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="38">
         <v>9.02</v>
       </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="38">
+        <v>15</v>
+      </c>
+      <c r="E23" s="37">
         <v>10</v>
       </c>
       <c r="F23">
@@ -12695,14 +12708,14 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>9.01</v>
       </c>
-      <c r="D24">
-        <v>12</v>
+      <c r="D24" s="1">
+        <v>15</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -12742,14 +12755,14 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>13</v>
+      <c r="D25" s="1">
+        <v>17</v>
       </c>
       <c r="E25">
         <v>10</v>
